--- a/StructureDefinition-Specimen.xlsx
+++ b/StructureDefinition-Specimen.xlsx
@@ -2613,10 +2613,10 @@
         <v>105</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2682,7 +2682,7 @@
         <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>39</v>

--- a/StructureDefinition-Specimen.xlsx
+++ b/StructureDefinition-Specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T15:55:49+00:00</t>
+    <t>2022-05-16T14:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Specimen.xlsx
+++ b/StructureDefinition-Specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T08:46:52+00:00</t>
+    <t>2023-09-01T11:58:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
